--- a/data/extracted_data/raw/Chen_etal_2002_Fig1.xlsx
+++ b/data/extracted_data/raw/Chen_etal_2002_Fig1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F69DD50-AF9E-1245-9A97-CF00BA7983A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B29E1B-1B4B-1640-9688-907F7CCB986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16440" xr2:uid="{2166F7C4-21BD-5D49-8DB1-5219EEA4A8D1}"/>
   </bookViews>
@@ -886,9 +886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E355F5-198D-D542-AA84-A808BCFBFF60}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -913,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4.6369616113567904</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -921,7 +923,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>7.5457281950276798</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -929,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>7.6631610241926396</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -937,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>13.3626667657661</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -945,7 +947,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>14.4115351741053</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -953,7 +955,7 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>17.586681036084499</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -961,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>22.223048050837999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -969,7 +971,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>29.5166672860381</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -977,7 +979,7 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>30.033966330967299</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -985,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>30.8164554609981</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -993,7 +995,7 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>31.4654576535731</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1001,7 +1003,7 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>32.913597681073199</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1009,7 +1011,7 @@
         <v>39</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8.3130551116726696</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1017,55 +1019,31 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>5.7726411237875697</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>12.6545022111561</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>8.3716228771043095</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>54</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>60</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
+        <v>5.4188561447842698</v>
       </c>
     </row>
   </sheetData>
